--- a/template.xlsx
+++ b/template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
   <si>
     <t>151-0002
 東京都渋谷区渋谷1-2-5 
@@ -148,6 +148,15 @@
   </si>
   <si>
     <t>（内訳）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                  株式会社 クーシー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   〒150-0011東京都渋谷区東3-16-3 7F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   TEL：03-5766-6095　FAX：03-5766-6096</t>
   </si>
   <si>
     <t>見　積　書</t>
@@ -465,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -529,9 +538,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="1" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -543,9 +549,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="1" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="1" vertical="bottom" wrapText="0"/>
@@ -784,15 +787,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1285875" cy="485775"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.jpg"/>
+        <xdr:cNvPr id="0" name="image1.jpg" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1390,8 +1393,7 @@
       <c r="O13" s="15"/>
       <c r="P13" s="20"/>
       <c r="Q13" s="20"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="20" t="s">
+      <c r="R13" s="20" t="s">
         <v>2</v>
       </c>
       <c r="AA13" s="15"/>
@@ -1410,15 +1412,14 @@
       <c r="K14" s="19"/>
       <c r="L14" s="19"/>
       <c r="M14" s="19"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="23" t="s">
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Z14" s="24"/>
+      <c r="Z14" s="23"/>
       <c r="AA14" s="15"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
@@ -1435,12 +1436,11 @@
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="23" t="s">
+      <c r="N15" s="24"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1458,15 +1458,15 @@
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
       <c r="M16" s="19"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
       <c r="S16" s="19"/>
       <c r="T16" s="19"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="27"/>
+      <c r="V16" s="25"/>
       <c r="AA16" s="15"/>
     </row>
     <row r="17" ht="15.0" customHeight="1">
@@ -1483,15 +1483,15 @@
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="28"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
       <c r="S17" s="19"/>
       <c r="T17" s="19"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="25"/>
       <c r="AA17" s="15"/>
     </row>
     <row r="18" ht="15.0" customHeight="1">
@@ -1508,19 +1508,19 @@
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
       <c r="AA18" s="15"/>
     </row>
     <row r="19" ht="15.0" customHeight="1">
@@ -1537,19 +1537,19 @@
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="28"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="28"/>
-      <c r="Y19" s="28"/>
-      <c r="Z19" s="28"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="26"/>
       <c r="AA19" s="15"/>
     </row>
     <row r="20" ht="15.0" customHeight="1">
@@ -1566,889 +1566,889 @@
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
       <c r="AA20" s="15"/>
     </row>
     <row r="21" ht="15.0" customHeight="1">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
-      <c r="Y21" s="28"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="28"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="26"/>
+      <c r="AA21" s="26"/>
     </row>
     <row r="22" ht="15.0" customHeight="1">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="28"/>
-      <c r="Y22" s="28"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="28"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+      <c r="AA22" s="26"/>
     </row>
     <row r="23" ht="15.0" customHeight="1">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="28"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="28"/>
-      <c r="T23" s="28"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="28"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="28"/>
-      <c r="Y23" s="28"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="28"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="26"/>
+      <c r="AA23" s="26"/>
     </row>
     <row r="24" ht="15.0" customHeight="1">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AA24" s="28"/>
+      <c r="AA24" s="26"/>
     </row>
     <row r="25" ht="15.0" customHeight="1">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="28"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="28"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="28"/>
-      <c r="Y25" s="28"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="28"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="26"/>
+      <c r="AA25" s="26"/>
     </row>
     <row r="26" ht="15.0" customHeight="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="28"/>
-      <c r="O26" s="28"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="31" t="s">
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="R26" s="28" t="s">
+      <c r="R26" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="S26" s="28"/>
-      <c r="T26" s="28"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="28"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="28"/>
-      <c r="Y26" s="28"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="28"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="26"/>
+      <c r="Y26" s="26"/>
+      <c r="Z26" s="26"/>
+      <c r="AA26" s="26"/>
     </row>
     <row r="27" ht="15.0" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="O27" s="28"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="31" t="s">
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="R27" s="28" t="s">
+      <c r="R27" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="S27" s="28"/>
-      <c r="T27" s="28"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="26"/>
+      <c r="Y27" s="26"/>
+      <c r="Z27" s="26"/>
+      <c r="AA27" s="26"/>
     </row>
     <row r="28" ht="15.0" customHeight="1">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="31" t="s">
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="R28" s="28" t="s">
+      <c r="R28" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="26"/>
+      <c r="Z28" s="26"/>
+      <c r="AA28" s="26"/>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="26"/>
+      <c r="Y29" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AA29" s="28"/>
+      <c r="AA29" s="26"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="28"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="28"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="28"/>
-      <c r="Y30" s="28"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="28"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="26"/>
+      <c r="Y30" s="26"/>
+      <c r="Z30" s="26"/>
+      <c r="AA30" s="26"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="28"/>
-      <c r="Y31" s="28"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="28"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="26"/>
+      <c r="Y31" s="26"/>
+      <c r="Z31" s="26"/>
+      <c r="AA31" s="26"/>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
-      <c r="N32" s="28"/>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="28"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="28"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="28"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="28"/>
-      <c r="Y33" s="28"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="28"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="26"/>
+      <c r="Y33" s="26"/>
+      <c r="Z33" s="26"/>
+      <c r="AA33" s="26"/>
     </row>
     <row r="34" ht="15.0" customHeight="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="28"/>
-      <c r="O34" s="28"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="28"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="28"/>
-      <c r="T34" s="28"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="28"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="28"/>
-      <c r="Y34" s="28"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="28"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
     </row>
     <row r="35" ht="15.0" customHeight="1">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
-      <c r="N35" s="28"/>
-      <c r="O35" s="28"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="28"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="28"/>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="28"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="28"/>
-      <c r="Y35" s="28"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="28"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
     </row>
     <row r="36" ht="15.0" customHeight="1">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="28"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="28"/>
-      <c r="T36" s="28"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="28"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
     </row>
     <row r="37" ht="15.0" customHeight="1">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="28"/>
-      <c r="T37" s="28"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="28"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="28"/>
-      <c r="Y37" s="28"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="28"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+      <c r="AA37" s="26"/>
     </row>
     <row r="38" ht="15.0" customHeight="1">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="28"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="28"/>
-      <c r="T38" s="28"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="28"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="28"/>
-      <c r="Y38" s="28"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="28"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="26"/>
+      <c r="Y38" s="26"/>
+      <c r="Z38" s="26"/>
+      <c r="AA38" s="26"/>
     </row>
     <row r="39" ht="15.0" customHeight="1">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="28"/>
-      <c r="T39" s="28"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="28"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="28"/>
-      <c r="Y39" s="28"/>
-      <c r="Z39" s="28"/>
-      <c r="AA39" s="28"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
     </row>
     <row r="40" ht="15.0" customHeight="1">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
     </row>
     <row r="41" ht="15.0" customHeight="1">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+      <c r="AA41" s="26"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="26"/>
+      <c r="Y42" s="26"/>
+      <c r="Z42" s="26"/>
+      <c r="AA42" s="26"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
-      <c r="K43" s="28"/>
-      <c r="L43" s="28"/>
-      <c r="M43" s="28"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="28"/>
-      <c r="P43" s="28"/>
-      <c r="Q43" s="28"/>
-      <c r="R43" s="28"/>
-      <c r="S43" s="28"/>
-      <c r="T43" s="28"/>
-      <c r="U43" s="28"/>
-      <c r="V43" s="28"/>
-      <c r="W43" s="28"/>
-      <c r="X43" s="28"/>
-      <c r="Y43" s="28"/>
-      <c r="Z43" s="28"/>
-      <c r="AA43" s="28"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+      <c r="AA43" s="26"/>
     </row>
     <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="28"/>
-      <c r="T44" s="28"/>
-      <c r="U44" s="28"/>
-      <c r="V44" s="28"/>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
     </row>
     <row r="45" ht="15.0" customHeight="1">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="28"/>
-      <c r="R45" s="28"/>
-      <c r="S45" s="28"/>
-      <c r="T45" s="28"/>
-      <c r="U45" s="28"/>
-      <c r="V45" s="28"/>
-      <c r="W45" s="28"/>
-      <c r="X45" s="28"/>
-      <c r="Y45" s="28"/>
-      <c r="Z45" s="28"/>
-      <c r="AA45" s="28"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="26"/>
+      <c r="Y45" s="26"/>
+      <c r="Z45" s="26"/>
+      <c r="AA45" s="26"/>
     </row>
     <row r="46" ht="15.0" customHeight="1">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="P46" s="28"/>
-      <c r="Q46" s="28"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="28"/>
-      <c r="T46" s="28"/>
-      <c r="U46" s="28"/>
-      <c r="V46" s="28"/>
-      <c r="W46" s="28"/>
-      <c r="X46" s="28"/>
-      <c r="Y46" s="28"/>
-      <c r="Z46" s="28"/>
-      <c r="AA46" s="28"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="26"/>
+      <c r="Z46" s="26"/>
+      <c r="AA46" s="26"/>
     </row>
     <row r="47" ht="15.0" customHeight="1">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="28"/>
-      <c r="R47" s="28"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="28"/>
-      <c r="U47" s="28"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="28"/>
-      <c r="X47" s="28"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="28"/>
-      <c r="AA47" s="28"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="26"/>
     </row>
     <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="28"/>
-      <c r="Q48" s="28"/>
-      <c r="R48" s="28"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="28"/>
-      <c r="U48" s="28"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="26"/>
     </row>
     <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="28"/>
-      <c r="R49" s="28"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="28"/>
-      <c r="U49" s="28"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="28"/>
-      <c r="X49" s="28"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="28"/>
-      <c r="AA49" s="28"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="26"/>
     </row>
     <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="28"/>
-      <c r="L50" s="28"/>
-      <c r="M50" s="28"/>
-      <c r="N50" s="28"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="28"/>
-      <c r="Q50" s="28"/>
-      <c r="R50" s="28"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="28"/>
-      <c r="U50" s="28"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="28"/>
-      <c r="X50" s="28"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="28"/>
-      <c r="AA50" s="28"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="26"/>
+      <c r="Y50" s="26"/>
+      <c r="Z50" s="26"/>
+      <c r="AA50" s="26"/>
     </row>
     <row r="51" ht="12.0" customHeight="1">
-      <c r="A51" s="28"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="28"/>
-      <c r="L51" s="28"/>
-      <c r="M51" s="28"/>
-      <c r="N51" s="28"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="28"/>
-      <c r="R51" s="28"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="28"/>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="28"/>
-      <c r="X51" s="28"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="28"/>
-      <c r="AA51" s="28"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="26"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="26"/>
+      <c r="Y51" s="26"/>
+      <c r="Z51" s="26"/>
+      <c r="AA51" s="26"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
       <c r="A52" s="15"/>
@@ -8389,9 +8389,9 @@
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:N4"/>
     <mergeCell ref="A6:AA7"/>
-    <mergeCell ref="S13:Z13"/>
-    <mergeCell ref="S14:Y14"/>
-    <mergeCell ref="S15:AA15"/>
+    <mergeCell ref="R15:AA15"/>
+    <mergeCell ref="R14:Y14"/>
+    <mergeCell ref="R13:Z13"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="V16:Z16"/>
@@ -8478,8 +8478,8 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -8514,7 +8514,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="33"/>
+      <c r="W3" s="31"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
@@ -8536,11 +8536,11 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="35" t="s">
+      <c r="N4" s="32"/>
+      <c r="O4" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="X4" s="36"/>
+      <c r="X4" s="34"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
@@ -8561,8 +8561,8 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38" t="s">
+      <c r="N5" s="35"/>
+      <c r="O5" s="36" t="s">
         <v>15</v>
       </c>
       <c r="Y5" s="1"/>
@@ -8573,9 +8573,9 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -8585,8 +8585,8 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="40" t="s">
+      <c r="N6" s="35"/>
+      <c r="O6" s="38" t="s">
         <v>16</v>
       </c>
       <c r="AA6" s="1"/>
@@ -8595,10 +8595,10 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="Y7" s="42"/>
+      <c r="Y7" s="40"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
@@ -8606,30 +8606,30 @@
     </row>
     <row r="8">
       <c r="A8" s="1"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="43"/>
-      <c r="V8" s="43"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="43"/>
-      <c r="Y8" s="43"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -8637,48 +8637,48 @@
     </row>
     <row r="9" ht="6.0" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="47"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="45"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -8719,18 +8719,18 @@
     </row>
     <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -8752,18 +8752,18 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -8777,7 +8777,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="23"/>
+      <c r="Y13" s="22"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -8785,40 +8785,40 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="55" t="s">
+      <c r="P14" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="55" t="s">
+      <c r="Q14" s="54"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="56"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="55" t="s">
+      <c r="T14" s="54"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="W14" s="56"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="58"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="56"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -8826,32 +8826,32 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="23"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="22"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -8859,35 +8859,35 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63">
         <f>F18+L16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="66" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="64"/>
-      <c r="L16" s="67">
+      <c r="K16" s="62"/>
+      <c r="L16" s="65">
         <f>F18*M18/100</f>
         <v>0</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="68"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="68"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="68"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="23"/>
+      <c r="P16" s="66"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="66"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="66"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="22"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -8895,29 +8895,29 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="72"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="70"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -8930,32 +8930,32 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="73">
+      <c r="F18" s="71">
         <v>0.0</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="75" t="s">
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="76">
+      <c r="M18" s="74">
         <v>10.0</v>
       </c>
-      <c r="N18" s="74" t="s">
+      <c r="N18" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="78"/>
+      <c r="W18" s="76"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="79"/>
+      <c r="Y18" s="77"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -8963,32 +8963,32 @@
     </row>
     <row r="19" ht="24.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="83"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="81"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -9027,58 +9027,58 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="85"/>
-      <c r="O21" s="84" t="s">
+      <c r="N21" s="83"/>
+      <c r="O21" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="84" t="s">
+      <c r="P21" s="84"/>
+      <c r="Q21" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="86"/>
-      <c r="T21" s="84" t="s">
+      <c r="S21" s="84"/>
+      <c r="T21" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="86"/>
-      <c r="W21" s="87" t="s">
+      <c r="V21" s="84"/>
+      <c r="W21" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="94"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="92"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -16179,8 +16179,8 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -16215,7 +16215,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="33"/>
+      <c r="W3" s="31"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
@@ -16225,10 +16225,9 @@
     </row>
     <row r="4" ht="23.25" customHeight="1">
       <c r="A4" s="10"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="95" t="s">
-        <v>2</v>
+      <c r="N4" s="32"/>
+      <c r="O4" s="93" t="s">
+        <v>38</v>
       </c>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
@@ -16237,10 +16236,9 @@
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="38" t="s">
-        <v>3</v>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36" t="s">
+        <v>39</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -16249,22 +16247,21 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38" t="s">
-        <v>4</v>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36" t="s">
+        <v>40</v>
       </c>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="96" t="s">
-        <v>38</v>
+      <c r="B7" s="94" t="s">
+        <v>41</v>
       </c>
-      <c r="Y7" s="42"/>
+      <c r="Y7" s="40"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
@@ -16272,30 +16269,30 @@
     </row>
     <row r="8" ht="5.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -16303,30 +16300,30 @@
     </row>
     <row r="9" ht="6.0" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -16334,18 +16331,18 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="47"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="45"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -16385,19 +16382,19 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -16419,18 +16416,18 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -16444,7 +16441,7 @@
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="23"/>
+      <c r="Y13" s="22"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -16452,40 +16449,40 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="52" t="s">
-        <v>39</v>
+      <c r="B14" s="50" t="s">
+        <v>42</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54" t="s">
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="55" t="s">
+      <c r="P14" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="55" t="s">
+      <c r="Q14" s="54"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="56"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="55" t="s">
+      <c r="T14" s="54"/>
+      <c r="U14" s="55"/>
+      <c r="V14" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="W14" s="56"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="58"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="55"/>
+      <c r="Y14" s="56"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -16493,32 +16490,32 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="52" t="s">
-        <v>40</v>
+      <c r="B15" s="50" t="s">
+        <v>43</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="23"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="22"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -16526,35 +16523,35 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63">
         <f>F18+L16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="66" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="64"/>
-      <c r="L16" s="67">
+      <c r="K16" s="62"/>
+      <c r="L16" s="65">
         <f>F18*M18/100</f>
         <v>0</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="68"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="68"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="68"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="23"/>
+      <c r="P16" s="66"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="66"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="66"/>
+      <c r="X16" s="67"/>
+      <c r="Y16" s="22"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -16562,29 +16559,29 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="72"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="70"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -16597,32 +16594,32 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="73">
+      <c r="F18" s="71">
         <v>0.0</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="75" t="s">
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="76">
+      <c r="M18" s="74">
         <v>10.0</v>
       </c>
-      <c r="N18" s="74" t="s">
+      <c r="N18" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="78"/>
+      <c r="W18" s="76"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="79"/>
+      <c r="Y18" s="77"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -16630,32 +16627,32 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="83"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="81"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -16694,121 +16691,121 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="85"/>
-      <c r="O21" s="84" t="s">
+      <c r="N21" s="83"/>
+      <c r="O21" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="84" t="s">
+      <c r="P21" s="84"/>
+      <c r="Q21" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="86"/>
-      <c r="T21" s="84" t="s">
+      <c r="S21" s="84"/>
+      <c r="T21" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="86"/>
-      <c r="W21" s="87" t="s">
+      <c r="V21" s="84"/>
+      <c r="W21" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="94"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="92"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="97"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="98"/>
-      <c r="H23" s="98"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="98"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="98"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="99"/>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="100"/>
-      <c r="T23" s="100"/>
-      <c r="U23" s="101"/>
-      <c r="V23" s="99"/>
-      <c r="W23" s="99"/>
-      <c r="X23" s="101"/>
-      <c r="Y23" s="101"/>
-      <c r="Z23" s="99"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
+      <c r="L23" s="96"/>
+      <c r="M23" s="96"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="99"/>
+      <c r="R23" s="99"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="99"/>
+      <c r="V23" s="97"/>
+      <c r="W23" s="97"/>
+      <c r="X23" s="99"/>
+      <c r="Y23" s="99"/>
+      <c r="Z23" s="97"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="97"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="103"/>
-      <c r="Q24" s="103"/>
-      <c r="R24" s="103"/>
-      <c r="S24" s="103"/>
-      <c r="T24" s="103"/>
-      <c r="U24" s="103"/>
-      <c r="V24" s="102"/>
-      <c r="W24" s="102"/>
-      <c r="X24" s="102"/>
-      <c r="Y24" s="102"/>
-      <c r="Z24" s="102"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
+      <c r="Q24" s="101"/>
+      <c r="R24" s="101"/>
+      <c r="S24" s="101"/>
+      <c r="T24" s="101"/>
+      <c r="U24" s="101"/>
+      <c r="V24" s="100"/>
+      <c r="W24" s="100"/>
+      <c r="X24" s="100"/>
+      <c r="Y24" s="100"/>
+      <c r="Z24" s="100"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -23735,9 +23732,9 @@
     <mergeCell ref="B3:M6"/>
     <mergeCell ref="B7:X7"/>
     <mergeCell ref="B10:N10"/>
-    <mergeCell ref="P6:Y6"/>
-    <mergeCell ref="P5:Y5"/>
-    <mergeCell ref="P4:Y4"/>
+    <mergeCell ref="O6:Y6"/>
+    <mergeCell ref="O5:Y5"/>
+    <mergeCell ref="O4:Y4"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="P15:R17"/>
@@ -23852,8 +23849,8 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -23870,7 +23867,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="3"/>
@@ -23887,10 +23884,10 @@
     <row r="3" ht="54.75" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N3" s="10"/>
-      <c r="O3" s="34"/>
+      <c r="O3" s="32"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
       <c r="AB3" s="8"/>
@@ -23916,7 +23913,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="34"/>
+      <c r="N4" s="32"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
       <c r="AB4" s="10"/>
@@ -23942,7 +23939,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="37"/>
+      <c r="N5" s="35"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -23956,18 +23953,18 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="46"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
+      <c r="B6" s="44"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="104"/>
-      <c r="X6" s="105"/>
+      <c r="W6" s="102"/>
+      <c r="X6" s="103"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -23982,10 +23979,10 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="96" t="s">
-        <v>43</v>
+      <c r="B7" s="94" t="s">
+        <v>46</v>
       </c>
-      <c r="Y7" s="42"/>
+      <c r="Y7" s="40"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
@@ -23999,30 +23996,30 @@
     </row>
     <row r="8" ht="5.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -24036,30 +24033,30 @@
     </row>
     <row r="9" ht="6.0" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -24073,18 +24070,18 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="46" t="s">
-        <v>44</v>
+      <c r="B10" s="44" t="s">
+        <v>47</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="47"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="45"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -24100,28 +24097,28 @@
     </row>
     <row r="11" ht="6.0" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="47"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="44"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
+      <c r="W11" s="45"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -24137,18 +24134,18 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="48" t="s">
-        <v>45</v>
+      <c r="B12" s="46" t="s">
+        <v>48</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -24176,16 +24173,16 @@
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -24213,16 +24210,16 @@
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -24250,16 +24247,16 @@
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -24287,24 +24284,24 @@
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63">
         <f>F18+L16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="66" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="64"/>
-      <c r="L16" s="67">
+      <c r="K16" s="62"/>
+      <c r="L16" s="65">
         <f>F18*M18/100</f>
         <v>0</v>
       </c>
@@ -24332,19 +24329,19 @@
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -24373,32 +24370,32 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="73">
+      <c r="F18" s="71">
         <v>0.0</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="75" t="s">
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="76">
+      <c r="M18" s="74">
         <v>10.0</v>
       </c>
-      <c r="N18" s="74" t="s">
+      <c r="N18" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="78"/>
+      <c r="W18" s="76"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="79"/>
+      <c r="Y18" s="77"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -24412,32 +24409,32 @@
     </row>
     <row r="19" ht="18.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="83"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="81"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -24488,27 +24485,27 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="85"/>
-      <c r="O21" s="84" t="s">
+      <c r="N21" s="83"/>
+      <c r="O21" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="84" t="s">
+      <c r="P21" s="84"/>
+      <c r="Q21" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="86"/>
-      <c r="T21" s="84" t="s">
+      <c r="S21" s="84"/>
+      <c r="T21" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="86"/>
-      <c r="W21" s="87" t="s">
+      <c r="V21" s="84"/>
+      <c r="W21" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -24518,34 +24515,34 @@
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
     </row>
-    <row r="22" ht="12.0" customHeight="1">
+    <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="94"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="92"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -24557,32 +24554,32 @@
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="109"/>
-      <c r="R23" s="109"/>
-      <c r="S23" s="109"/>
-      <c r="T23" s="109"/>
-      <c r="U23" s="109"/>
-      <c r="V23" s="109"/>
-      <c r="W23" s="109"/>
-      <c r="X23" s="109"/>
-      <c r="Y23" s="109"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="107"/>
+      <c r="P23" s="107"/>
+      <c r="Q23" s="107"/>
+      <c r="R23" s="107"/>
+      <c r="S23" s="107"/>
+      <c r="T23" s="107"/>
+      <c r="U23" s="107"/>
+      <c r="V23" s="107"/>
+      <c r="W23" s="107"/>
+      <c r="X23" s="107"/>
+      <c r="Y23" s="107"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -24594,10 +24591,10 @@
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
     </row>
-    <row r="24" ht="9.75" customHeight="1">
+    <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -24633,7 +24630,7 @@
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
     </row>
-    <row r="25" ht="10.5" customHeight="1">
+    <row r="25" ht="15.0" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -24649,14 +24646,14 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
       <c r="V25" s="1"/>
-      <c r="W25" s="47"/>
+      <c r="W25" s="45"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
@@ -24670,7 +24667,7 @@
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
     </row>
-    <row r="26" ht="10.5" customHeight="1">
+    <row r="26" ht="15.0" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -24686,14 +24683,14 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="47"/>
+      <c r="W26" s="45"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
@@ -24744,7 +24741,7 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" ht="10.5" customHeight="1">
+    <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -24781,7 +24778,7 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="29" ht="10.5" customHeight="1">
+    <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -24818,7 +24815,7 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
     </row>
-    <row r="30" ht="10.5" customHeight="1">
+    <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -24855,7 +24852,7 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
     </row>
-    <row r="31" ht="10.5" customHeight="1">
+    <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -24892,7 +24889,7 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" ht="10.5" customHeight="1">
+    <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -24929,7 +24926,7 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
     </row>
-    <row r="33" ht="10.5" customHeight="1">
+    <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -24966,7 +24963,7 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
     </row>
-    <row r="34" ht="10.5" customHeight="1">
+    <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -32916,8 +32913,8 @@
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="3"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -32960,7 +32957,7 @@
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
       <c r="V3" s="6"/>
-      <c r="W3" s="33"/>
+      <c r="W3" s="31"/>
       <c r="X3" s="6"/>
       <c r="Y3" s="8"/>
       <c r="Z3" s="8"/>
@@ -32988,11 +32985,11 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="35" t="s">
-        <v>47</v>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33" t="s">
+        <v>50</v>
       </c>
-      <c r="X4" s="36"/>
+      <c r="X4" s="34"/>
       <c r="Y4" s="10"/>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
@@ -33019,11 +33016,11 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38" t="s">
-        <v>48</v>
+      <c r="N5" s="35"/>
+      <c r="O5" s="36" t="s">
+        <v>51</v>
       </c>
-      <c r="X5" s="38"/>
+      <c r="X5" s="36"/>
       <c r="Y5" s="10"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -33038,9 +33035,9 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -33050,12 +33047,12 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38" t="s">
-        <v>49</v>
+      <c r="N6" s="35"/>
+      <c r="O6" s="36" t="s">
+        <v>52</v>
       </c>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
@@ -33067,10 +33064,10 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="96" t="s">
-        <v>50</v>
+      <c r="B7" s="94" t="s">
+        <v>53</v>
       </c>
-      <c r="Y7" s="42"/>
+      <c r="Y7" s="40"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
@@ -33084,30 +33081,30 @@
     </row>
     <row r="8" ht="5.25" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="43"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -33121,30 +33118,30 @@
     </row>
     <row r="9" ht="6.0" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="45"/>
-      <c r="Y9" s="45"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -33158,14 +33155,14 @@
     </row>
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="46" t="s">
-        <v>51</v>
+      <c r="B10" s="44" t="s">
+        <v>54</v>
       </c>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="110"/>
+      <c r="R10" s="108"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -33200,9 +33197,9 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="23"/>
+      <c r="P11" s="22"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="110"/>
+      <c r="R11" s="108"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -33223,28 +33220,28 @@
     </row>
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="48" t="s">
-        <v>52</v>
+      <c r="B12" s="46" t="s">
+        <v>55</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="110"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="108"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -33262,16 +33259,16 @@
     </row>
     <row r="13" ht="13.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -33299,16 +33296,16 @@
     </row>
     <row r="14" ht="13.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -33336,16 +33333,16 @@
     </row>
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -33373,24 +33370,24 @@
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="63" t="s">
+      <c r="B16" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="65">
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="63">
         <f>F18+L16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="66" t="s">
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="64"/>
-      <c r="L16" s="67">
+      <c r="K16" s="62"/>
+      <c r="L16" s="65">
         <f>F18*M18/100</f>
         <v>0</v>
       </c>
@@ -33418,19 +33415,19 @@
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -33459,34 +33456,34 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="73">
+      <c r="F18" s="71">
         <v>0.0</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="75" t="s">
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="76">
+      <c r="M18" s="74">
         <v>10.0</v>
       </c>
-      <c r="N18" s="74" t="s">
+      <c r="N18" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77"/>
-      <c r="S18" s="77"/>
-      <c r="T18" s="77"/>
-      <c r="U18" s="77"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="78"/>
+      <c r="W18" s="76"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="79"/>
+      <c r="Y18" s="77"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -33500,32 +33497,32 @@
     </row>
     <row r="19" ht="23.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
-      <c r="R19" s="81"/>
-      <c r="S19" s="81"/>
-      <c r="T19" s="81"/>
-      <c r="U19" s="81"/>
-      <c r="V19" s="81"/>
-      <c r="W19" s="81"/>
-      <c r="X19" s="81"/>
-      <c r="Y19" s="83"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
+      <c r="S19" s="79"/>
+      <c r="T19" s="79"/>
+      <c r="U19" s="79"/>
+      <c r="V19" s="79"/>
+      <c r="W19" s="79"/>
+      <c r="X19" s="79"/>
+      <c r="Y19" s="81"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -33576,27 +33573,27 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="84" t="s">
+      <c r="B21" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="85"/>
-      <c r="O21" s="84" t="s">
+      <c r="N21" s="83"/>
+      <c r="O21" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="84" t="s">
+      <c r="P21" s="84"/>
+      <c r="Q21" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="86"/>
-      <c r="T21" s="84" t="s">
+      <c r="S21" s="84"/>
+      <c r="T21" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="86"/>
-      <c r="W21" s="87" t="s">
+      <c r="V21" s="84"/>
+      <c r="W21" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="88"/>
-      <c r="AA21" s="88"/>
+      <c r="Z21" s="86"/>
+      <c r="AA21" s="86"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -33608,32 +33605,32 @@
     </row>
     <row r="22" ht="11.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="92"/>
-      <c r="Q22" s="92"/>
-      <c r="R22" s="92"/>
-      <c r="S22" s="92"/>
-      <c r="T22" s="92"/>
-      <c r="U22" s="92"/>
-      <c r="V22" s="91"/>
-      <c r="W22" s="93"/>
-      <c r="X22" s="91"/>
-      <c r="Y22" s="94"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="88"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="88"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="89"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="91"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="92"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -33685,7 +33682,7 @@
     <row r="24" ht="11.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -33795,7 +33792,7 @@
       <c r="AH26" s="1"/>
       <c r="AI26" s="1"/>
     </row>
-    <row r="27" ht="11.25" customHeight="1">
+    <row r="27" ht="13.5" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -33832,7 +33829,7 @@
       <c r="AH27" s="1"/>
       <c r="AI27" s="1"/>
     </row>
-    <row r="28" ht="11.25" customHeight="1">
+    <row r="28" ht="13.5" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -33869,7 +33866,7 @@
       <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
     </row>
-    <row r="29" ht="11.25" customHeight="1">
+    <row r="29" ht="13.5" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -33906,7 +33903,7 @@
       <c r="AH29" s="1"/>
       <c r="AI29" s="1"/>
     </row>
-    <row r="30" ht="11.25" customHeight="1">
+    <row r="30" ht="13.5" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -33943,7 +33940,7 @@
       <c r="AH30" s="1"/>
       <c r="AI30" s="1"/>
     </row>
-    <row r="31" ht="11.25" customHeight="1">
+    <row r="31" ht="13.5" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -33980,7 +33977,7 @@
       <c r="AH31" s="1"/>
       <c r="AI31" s="1"/>
     </row>
-    <row r="32" ht="10.5" customHeight="1">
+    <row r="32" ht="13.5" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -34017,7 +34014,7 @@
       <c r="AH32" s="1"/>
       <c r="AI32" s="1"/>
     </row>
-    <row r="33" ht="10.5" customHeight="1">
+    <row r="33" ht="13.5" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -34054,7 +34051,7 @@
       <c r="AH33" s="1"/>
       <c r="AI33" s="1"/>
     </row>
-    <row r="34" ht="10.5" customHeight="1">
+    <row r="34" ht="13.5" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -34091,7 +34088,7 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
     </row>
-    <row r="35" ht="10.5" customHeight="1">
+    <row r="35" ht="13.5" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -150,13 +150,13 @@
     <t>（内訳）</t>
   </si>
   <si>
-    <t xml:space="preserve">                  株式会社 クーシー</t>
+    <t xml:space="preserve">               株式会社 クーシー</t>
   </si>
   <si>
-    <t xml:space="preserve">                   〒150-0011東京都渋谷区東3-16-3 7F</t>
+    <t xml:space="preserve">                〒150-0011東京都渋谷区東3-16-3 7F</t>
   </si>
   <si>
-    <t xml:space="preserve">                   TEL：03-5766-6095　FAX：03-5766-6096</t>
+    <t xml:space="preserve">                 TEL：03-5766-6095　FAX：03-5766-6096</t>
   </si>
   <si>
     <t>見　積　書</t>
@@ -188,13 +188,13 @@
     <t xml:space="preserve">　</t>
   </si>
   <si>
-    <t xml:space="preserve">　　　株式会社 クーシー</t>
+    <t xml:space="preserve">　     株式会社 クーシー</t>
   </si>
   <si>
-    <t xml:space="preserve">　　　   〒150-0011東京都渋谷区東3-16-3 7F</t>
+    <t xml:space="preserve">　       〒150-0011東京都渋谷区東3-16-3 7F</t>
   </si>
   <si>
-    <t xml:space="preserve">               TEL：03-5766-6095　FAX：03-5766-6096</t>
+    <t xml:space="preserve">           TEL：03-5766-6095　FAX：03-5766-6096</t>
   </si>
   <si>
     <t>注　文　請　書</t>
@@ -1100,7 +1100,7 @@
     <col customWidth="1" min="4" max="24" width="3.63"/>
     <col customWidth="1" min="25" max="25" width="2.13"/>
     <col customWidth="1" min="26" max="26" width="3.63"/>
-    <col customWidth="1" min="27" max="27" width="0.75"/>
+    <col customWidth="1" min="27" max="27" width="4.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="3.75" customHeight="1">

--- a/template.xlsx
+++ b/template.xlsx
@@ -862,14 +862,14 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="666750" cy="676275"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1097,7 +1097,9 @@
     <col customWidth="1" min="1" max="1" width="0.75"/>
     <col customWidth="1" min="2" max="2" width="3.63"/>
     <col customWidth="1" min="3" max="3" width="2.13"/>
-    <col customWidth="1" min="4" max="24" width="3.63"/>
+    <col customWidth="1" min="4" max="22" width="3.63"/>
+    <col customWidth="1" min="23" max="23" width="5.38"/>
+    <col customWidth="1" min="24" max="24" width="3.63"/>
     <col customWidth="1" min="25" max="25" width="2.13"/>
     <col customWidth="1" min="26" max="26" width="3.63"/>
     <col customWidth="1" min="27" max="27" width="4.5"/>
@@ -8565,7 +8567,6 @@
       <c r="O5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -16067,10 +16068,10 @@
     <mergeCell ref="S2:X2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="O4:W4"/>
-    <mergeCell ref="O5:X5"/>
     <mergeCell ref="O6:Z6"/>
     <mergeCell ref="B7:X7"/>
     <mergeCell ref="B10:N10"/>
+    <mergeCell ref="O5:Y5"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="P15:R17"/>
@@ -16134,12 +16135,12 @@
     <col customWidth="1" min="17" max="17" width="4.0"/>
     <col customWidth="1" min="18" max="18" width="2.63"/>
     <col customWidth="1" min="19" max="19" width="1.25"/>
-    <col customWidth="1" min="20" max="20" width="5.0"/>
+    <col customWidth="1" min="20" max="20" width="5.75"/>
     <col customWidth="1" min="21" max="21" width="1.75"/>
     <col customWidth="1" min="22" max="22" width="1.38"/>
-    <col customWidth="1" min="23" max="23" width="4.13"/>
+    <col customWidth="1" min="23" max="23" width="4.5"/>
     <col customWidth="1" min="24" max="24" width="3.0"/>
-    <col customWidth="1" min="25" max="25" width="3.5"/>
+    <col customWidth="1" min="25" max="25" width="4.0"/>
     <col customWidth="1" min="26" max="26" width="0.38"/>
     <col customWidth="1" min="27" max="29" width="2.75"/>
   </cols>
@@ -32861,13 +32862,13 @@
     <col customWidth="1" min="14" max="14" width="1.63"/>
     <col customWidth="1" min="15" max="15" width="9.13"/>
     <col customWidth="1" min="16" max="16" width="1.25"/>
-    <col customWidth="1" min="17" max="17" width="4.0"/>
+    <col customWidth="1" min="17" max="17" width="4.63"/>
     <col customWidth="1" min="18" max="18" width="2.63"/>
     <col customWidth="1" min="19" max="19" width="1.0"/>
     <col customWidth="1" min="20" max="20" width="3.88"/>
     <col customWidth="1" min="21" max="21" width="2.63"/>
     <col customWidth="1" min="22" max="22" width="1.13"/>
-    <col customWidth="1" min="23" max="23" width="5.13"/>
+    <col customWidth="1" min="23" max="23" width="6.5"/>
     <col customWidth="1" min="24" max="24" width="2.63"/>
     <col customWidth="1" min="25" max="25" width="1.88"/>
     <col customWidth="1" min="26" max="26" width="1.13"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
   <si>
     <t>151-0002
 東京都渋谷区渋谷1-2-5 
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>承認</t>
-  </si>
-  <si>
-    <t>査閲</t>
   </si>
   <si>
     <t>担当</t>
@@ -369,15 +366,9 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
+      <right style="thin">
         <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      </right>
     </border>
     <border>
       <top style="thin">
@@ -405,6 +396,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <top style="thin">
@@ -420,6 +414,14 @@
       </top>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
@@ -430,11 +432,14 @@
       </left>
     </border>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -443,14 +448,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -474,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -630,36 +627,48 @@
     <xf borderId="2" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="9" fillId="0" fontId="17" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="10" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="0" fontId="17" numFmtId="169" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="12" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="13" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -731,6 +740,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="38" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -8391,9 +8403,9 @@
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:N4"/>
     <mergeCell ref="A6:AA7"/>
+    <mergeCell ref="R13:Z13"/>
+    <mergeCell ref="R14:Y14"/>
     <mergeCell ref="R15:AA15"/>
-    <mergeCell ref="R14:Y14"/>
-    <mergeCell ref="R13:Z13"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="Y29:Z29"/>
     <mergeCell ref="V16:Z16"/>
@@ -8804,22 +8816,19 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="53" t="s">
+      <c r="P14" s="53"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="53" t="s">
+      <c r="T14" s="56"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="54"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="W14" s="54"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="59"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -8828,11 +8837,11 @@
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
@@ -8843,15 +8852,14 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="60"/>
+      <c r="P15" s="61"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="64"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -8860,34 +8868,32 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="61" t="s">
-        <v>27</v>
+      <c r="B16" s="66" t="s">
+        <v>26</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63">
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68">
         <f>F18+L16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="64" t="s">
-        <v>28</v>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="69" t="s">
+        <v>27</v>
       </c>
-      <c r="K16" s="62"/>
-      <c r="L16" s="65">
+      <c r="K16" s="67"/>
+      <c r="L16" s="70">
         <f>F18*M18/100</f>
         <v>0</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="66"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="66"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="66"/>
-      <c r="X16" s="67"/>
+      <c r="R16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="71"/>
+      <c r="X16" s="54"/>
       <c r="Y16" s="22"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -8896,29 +8902,27 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="70"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="73"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -8931,32 +8935,32 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="71">
+      <c r="F18" s="75">
         <v>0.0</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="78">
+        <v>10.0</v>
+      </c>
+      <c r="N18" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="74">
-        <v>10.0</v>
-      </c>
-      <c r="N18" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="76"/>
+      <c r="W18" s="80"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="77"/>
+      <c r="Y18" s="81"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -8964,32 +8968,32 @@
     </row>
     <row r="19" ht="24.75" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="78" t="s">
-        <v>31</v>
+      <c r="B19" s="82" t="s">
+        <v>30</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="81"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="85"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -9028,58 +9032,58 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="87"/>
+      <c r="O21" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="83"/>
-      <c r="O21" s="82" t="s">
+      <c r="P21" s="88"/>
+      <c r="Q21" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="82" t="s">
+      <c r="S21" s="88"/>
+      <c r="T21" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="84"/>
-      <c r="T21" s="82" t="s">
+      <c r="V21" s="88"/>
+      <c r="W21" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="84"/>
-      <c r="W21" s="85" t="s">
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" ht="12.0" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-    </row>
-    <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="96"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -16068,10 +16072,10 @@
     <mergeCell ref="S2:X2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="O4:W4"/>
+    <mergeCell ref="O5:Y5"/>
     <mergeCell ref="O6:Z6"/>
     <mergeCell ref="B7:X7"/>
     <mergeCell ref="B10:N10"/>
-    <mergeCell ref="O5:Y5"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="P15:R17"/>
@@ -16227,8 +16231,8 @@
     <row r="4" ht="23.25" customHeight="1">
       <c r="A4" s="10"/>
       <c r="N4" s="32"/>
-      <c r="O4" s="93" t="s">
-        <v>38</v>
+      <c r="O4" s="97" t="s">
+        <v>37</v>
       </c>
       <c r="Z4" s="10"/>
       <c r="AA4" s="10"/>
@@ -16239,7 +16243,7 @@
       <c r="A5" s="1"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -16250,7 +16254,7 @@
       <c r="A6" s="1"/>
       <c r="N6" s="35"/>
       <c r="O6" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z6" s="36"/>
       <c r="AA6" s="36"/>
@@ -16259,8 +16263,8 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="94" t="s">
-        <v>41</v>
+      <c r="B7" s="98" t="s">
+        <v>40</v>
       </c>
       <c r="Y7" s="40"/>
       <c r="Z7" s="8"/>
@@ -16451,7 +16455,7 @@
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
@@ -16468,22 +16472,18 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="53" t="s">
+      <c r="P14" s="53"/>
+      <c r="S14" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="53" t="s">
+      <c r="T14" s="56"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="54"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="W14" s="54"/>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="59"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -16492,11 +16492,11 @@
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
@@ -16507,15 +16507,13 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="59"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="59"/>
-      <c r="X15" s="60"/>
+      <c r="P15" s="61"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="64"/>
       <c r="Y15" s="22"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -16524,34 +16522,32 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="61" t="s">
-        <v>27</v>
+      <c r="B16" s="66" t="s">
+        <v>26</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63">
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68">
         <f>F18+L16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="64" t="s">
-        <v>28</v>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="69" t="s">
+        <v>27</v>
       </c>
-      <c r="K16" s="62"/>
-      <c r="L16" s="65">
+      <c r="K16" s="67"/>
+      <c r="L16" s="70">
         <f>F18*M18/100</f>
         <v>0</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="66"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="66"/>
-      <c r="U16" s="67"/>
-      <c r="V16" s="66"/>
-      <c r="X16" s="67"/>
+      <c r="S16" s="71"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="71"/>
+      <c r="X16" s="54"/>
       <c r="Y16" s="22"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -16560,29 +16556,26 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
       <c r="O17" s="1"/>
-      <c r="P17" s="69"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="70"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="73"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -16595,32 +16588,32 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="71">
+      <c r="F18" s="75">
         <v>0.0</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="78">
+        <v>10.0</v>
+      </c>
+      <c r="N18" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="74">
-        <v>10.0</v>
-      </c>
-      <c r="N18" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="76"/>
+      <c r="W18" s="80"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="77"/>
+      <c r="Y18" s="81"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -16628,32 +16621,32 @@
     </row>
     <row r="19" ht="21.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="78" t="s">
-        <v>31</v>
+      <c r="B19" s="82" t="s">
+        <v>30</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="81"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="85"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -16692,121 +16685,121 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="87"/>
+      <c r="O21" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="83"/>
-      <c r="O21" s="82" t="s">
+      <c r="P21" s="88"/>
+      <c r="Q21" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="82" t="s">
+      <c r="S21" s="88"/>
+      <c r="T21" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="84"/>
-      <c r="T21" s="82" t="s">
+      <c r="V21" s="88"/>
+      <c r="W21" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="84"/>
-      <c r="W21" s="85" t="s">
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" ht="12.0" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-    </row>
-    <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="96"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
     <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="96"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="98"/>
-      <c r="Q23" s="99"/>
-      <c r="R23" s="99"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="99"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="99"/>
-      <c r="Y23" s="99"/>
-      <c r="Z23" s="97"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="101"/>
+      <c r="N23" s="101"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="103"/>
+      <c r="T23" s="103"/>
+      <c r="U23" s="104"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="104"/>
+      <c r="Y23" s="104"/>
+      <c r="Z23" s="102"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
     <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="95"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="100"/>
-      <c r="P24" s="101"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
-      <c r="U24" s="101"/>
-      <c r="V24" s="100"/>
-      <c r="W24" s="100"/>
-      <c r="X24" s="100"/>
-      <c r="Y24" s="100"/>
-      <c r="Z24" s="100"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="100"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="100"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="106"/>
+      <c r="R24" s="106"/>
+      <c r="S24" s="106"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="105"/>
+      <c r="W24" s="105"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="105"/>
+      <c r="Z24" s="105"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -23731,11 +23724,11 @@
   <mergeCells count="38">
     <mergeCell ref="S2:X2"/>
     <mergeCell ref="B3:M6"/>
+    <mergeCell ref="O4:Y4"/>
+    <mergeCell ref="O5:Y5"/>
+    <mergeCell ref="O6:Y6"/>
     <mergeCell ref="B7:X7"/>
     <mergeCell ref="B10:N10"/>
-    <mergeCell ref="O6:Y6"/>
-    <mergeCell ref="O5:Y5"/>
-    <mergeCell ref="O4:Y4"/>
     <mergeCell ref="S14:U14"/>
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="P15:R17"/>
@@ -23868,7 +23861,7 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y2" s="5"/>
       <c r="Z2" s="3"/>
@@ -23885,7 +23878,7 @@
     <row r="3" ht="54.75" customHeight="1">
       <c r="A3" s="8"/>
       <c r="B3" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3" s="10"/>
       <c r="O3" s="32"/>
@@ -23964,8 +23957,8 @@
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
       <c r="V6" s="1"/>
-      <c r="W6" s="102"/>
-      <c r="X6" s="103"/>
+      <c r="W6" s="107"/>
+      <c r="X6" s="108"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
@@ -23980,8 +23973,8 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="94" t="s">
-        <v>46</v>
+      <c r="B7" s="98" t="s">
+        <v>45</v>
       </c>
       <c r="Y7" s="40"/>
       <c r="Z7" s="8"/>
@@ -24072,7 +24065,7 @@
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -24136,17 +24129,17 @@
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
-      <c r="E12" s="104"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
       <c r="I12" s="47"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="104"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -24176,11 +24169,11 @@
       <c r="A13" s="1"/>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
@@ -24249,12 +24242,12 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="50"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
@@ -24285,24 +24278,24 @@
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="61" t="s">
-        <v>27</v>
+      <c r="B16" s="66" t="s">
+        <v>26</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63">
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68">
         <f>F18+L16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="64" t="s">
-        <v>28</v>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="69" t="s">
+        <v>27</v>
       </c>
-      <c r="K16" s="62"/>
-      <c r="L16" s="65">
+      <c r="K16" s="67"/>
+      <c r="L16" s="70">
         <f>F18*M18/100</f>
         <v>0</v>
       </c>
@@ -24330,19 +24323,19 @@
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -24371,32 +24364,32 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="71">
+      <c r="F18" s="75">
         <v>0.0</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="78">
+        <v>10.0</v>
+      </c>
+      <c r="N18" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="74">
-        <v>10.0</v>
-      </c>
-      <c r="N18" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="76"/>
+      <c r="W18" s="80"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="77"/>
+      <c r="Y18" s="81"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -24410,32 +24403,32 @@
     </row>
     <row r="19" ht="18.0" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="78" t="s">
-        <v>31</v>
+      <c r="B19" s="82" t="s">
+        <v>30</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="81"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="85"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -24486,27 +24479,27 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="87"/>
+      <c r="O21" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="83"/>
-      <c r="O21" s="82" t="s">
+      <c r="P21" s="88"/>
+      <c r="Q21" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="82" t="s">
+      <c r="S21" s="88"/>
+      <c r="T21" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="84"/>
-      <c r="T21" s="82" t="s">
+      <c r="V21" s="88"/>
+      <c r="W21" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="84"/>
-      <c r="W21" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -24518,32 +24511,32 @@
     </row>
     <row r="22" ht="15.0" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="87" t="s">
-        <v>37</v>
+      <c r="B22" s="91" t="s">
+        <v>36</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="96"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -24557,30 +24550,30 @@
     </row>
     <row r="23" ht="15.0" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="107"/>
-      <c r="P23" s="107"/>
-      <c r="Q23" s="107"/>
-      <c r="R23" s="107"/>
-      <c r="S23" s="107"/>
-      <c r="T23" s="107"/>
-      <c r="U23" s="107"/>
-      <c r="V23" s="107"/>
-      <c r="W23" s="107"/>
-      <c r="X23" s="107"/>
-      <c r="Y23" s="107"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
+      <c r="L23" s="112"/>
+      <c r="M23" s="112"/>
+      <c r="N23" s="112"/>
+      <c r="O23" s="112"/>
+      <c r="P23" s="112"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="112"/>
+      <c r="S23" s="112"/>
+      <c r="T23" s="112"/>
+      <c r="U23" s="112"/>
+      <c r="V23" s="112"/>
+      <c r="W23" s="112"/>
+      <c r="X23" s="112"/>
+      <c r="Y23" s="112"/>
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -24595,7 +24588,7 @@
     <row r="24" ht="15.0" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -32815,19 +32808,19 @@
     <mergeCell ref="B7:X7"/>
     <mergeCell ref="B10:N10"/>
     <mergeCell ref="E12:I12"/>
-    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:X19"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B21:M21"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="T21:U21"/>
     <mergeCell ref="W21:Y21"/>
     <mergeCell ref="B22:M22"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B16:E17"/>
     <mergeCell ref="F16:I17"/>
     <mergeCell ref="J16:K17"/>
     <mergeCell ref="L16:N17"/>
+    <mergeCell ref="F18:I18"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="N18:O18"/>
   </mergeCells>
@@ -32855,8 +32848,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="0.75"/>
-    <col customWidth="1" min="2" max="3" width="2.63"/>
-    <col customWidth="1" min="4" max="9" width="4.63"/>
+    <col customWidth="1" min="2" max="2" width="6.38"/>
+    <col customWidth="1" min="3" max="3" width="4.0"/>
+    <col customWidth="1" min="4" max="8" width="4.63"/>
+    <col customWidth="1" min="9" max="9" width="2.0"/>
     <col customWidth="1" min="10" max="10" width="5.0"/>
     <col customWidth="1" min="11" max="13" width="4.63"/>
     <col customWidth="1" min="14" max="14" width="1.63"/>
@@ -32988,7 +32983,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="32"/>
       <c r="O4" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X4" s="34"/>
       <c r="Y4" s="10"/>
@@ -33019,7 +33014,7 @@
       <c r="M5" s="5"/>
       <c r="N5" s="35"/>
       <c r="O5" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X5" s="36"/>
       <c r="Y5" s="10"/>
@@ -33050,7 +33045,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="35"/>
       <c r="O6" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z6" s="36"/>
       <c r="AA6" s="36"/>
@@ -33065,8 +33060,8 @@
     </row>
     <row r="7" ht="30.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="94" t="s">
-        <v>53</v>
+      <c r="B7" s="98" t="s">
+        <v>52</v>
       </c>
       <c r="Y7" s="40"/>
       <c r="Z7" s="8"/>
@@ -33157,13 +33152,13 @@
     <row r="10" ht="13.5" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="44" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="108"/>
+      <c r="R10" s="113"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -33200,7 +33195,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="108"/>
+      <c r="R11" s="113"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
@@ -33222,11 +33217,11 @@
     <row r="12" ht="13.5" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
-      <c r="E12" s="104"/>
+      <c r="E12" s="109"/>
       <c r="F12" s="47"/>
       <c r="G12" s="47"/>
       <c r="H12" s="47"/>
@@ -33239,7 +33234,7 @@
       <c r="O12" s="1"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
-      <c r="R12" s="108"/>
+      <c r="R12" s="113"/>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
@@ -33263,10 +33258,10 @@
       <c r="B13" s="46"/>
       <c r="C13" s="47"/>
       <c r="D13" s="47"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="105"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="46"/>
@@ -33335,12 +33330,12 @@
     <row r="15" ht="13.5" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="50"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
       <c r="I15" s="50"/>
       <c r="J15" s="50"/>
       <c r="K15" s="50"/>
@@ -33371,24 +33366,24 @@
     </row>
     <row r="16" ht="13.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="61" t="s">
-        <v>27</v>
+      <c r="B16" s="66" t="s">
+        <v>26</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="63">
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="68">
         <f>F18+L16</f>
         <v>0</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="64" t="s">
-        <v>28</v>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="69" t="s">
+        <v>27</v>
       </c>
-      <c r="K16" s="62"/>
-      <c r="L16" s="65">
+      <c r="K16" s="67"/>
+      <c r="L16" s="70">
         <f>F18*M18/100</f>
         <v>0</v>
       </c>
@@ -33416,19 +33411,19 @@
     </row>
     <row r="17" ht="13.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -33457,34 +33452,34 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="71">
+      <c r="F18" s="75">
         <v>0.0</v>
       </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="73" t="s">
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="78">
+        <v>10.0</v>
+      </c>
+      <c r="N18" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="74">
-        <v>10.0</v>
-      </c>
-      <c r="N18" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="76"/>
+      <c r="W18" s="80"/>
       <c r="X18" s="3"/>
-      <c r="Y18" s="77"/>
+      <c r="Y18" s="81"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="3"/>
       <c r="AB18" s="3"/>
@@ -33498,32 +33493,32 @@
     </row>
     <row r="19" ht="23.25" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="78" t="s">
-        <v>31</v>
+      <c r="B19" s="82" t="s">
+        <v>30</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
-      <c r="P19" s="79"/>
-      <c r="Q19" s="79"/>
-      <c r="R19" s="79"/>
-      <c r="S19" s="79"/>
-      <c r="T19" s="79"/>
-      <c r="U19" s="79"/>
-      <c r="V19" s="79"/>
-      <c r="W19" s="79"/>
-      <c r="X19" s="79"/>
-      <c r="Y19" s="81"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="85"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -33574,27 +33569,27 @@
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="86" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="87"/>
+      <c r="O21" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="N21" s="83"/>
-      <c r="O21" s="82" t="s">
+      <c r="P21" s="88"/>
+      <c r="Q21" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="P21" s="84"/>
-      <c r="Q21" s="82" t="s">
+      <c r="S21" s="88"/>
+      <c r="T21" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="84"/>
-      <c r="T21" s="82" t="s">
+      <c r="V21" s="88"/>
+      <c r="W21" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="V21" s="84"/>
-      <c r="W21" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
@@ -33606,32 +33601,32 @@
     </row>
     <row r="22" ht="11.25" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="87" t="s">
-        <v>37</v>
+      <c r="B22" s="91" t="s">
+        <v>36</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
-      <c r="K22" s="88"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="89"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="91"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="94"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="94"/>
+      <c r="S22" s="94"/>
+      <c r="T22" s="94"/>
+      <c r="U22" s="94"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="96"/>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -33683,7 +33678,7 @@
     <row r="24" ht="11.25" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -41896,28 +41891,28 @@
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="L16:N17"/>
+    <mergeCell ref="S2:X2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="O4:W4"/>
+    <mergeCell ref="O5:W5"/>
+    <mergeCell ref="O6:Y6"/>
+    <mergeCell ref="B7:X7"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:X19"/>
     <mergeCell ref="B21:M21"/>
-    <mergeCell ref="B22:M22"/>
-    <mergeCell ref="F16:I17"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="B19:D19"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="T21:U21"/>
     <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="B22:M22"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="S2:X2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B7:X7"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="O4:W4"/>
-    <mergeCell ref="O5:W5"/>
-    <mergeCell ref="O6:Y6"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="L16:N17"/>
+    <mergeCell ref="F18:I18"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/template.xlsx
+++ b/template.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>151-0002
 東京都渋谷区渋谷1-2-5 
@@ -32861,9 +32861,9 @@
     <col customWidth="1" min="18" max="18" width="2.63"/>
     <col customWidth="1" min="19" max="19" width="1.0"/>
     <col customWidth="1" min="20" max="20" width="3.88"/>
-    <col customWidth="1" min="21" max="21" width="2.63"/>
+    <col customWidth="1" min="21" max="21" width="3.5"/>
     <col customWidth="1" min="22" max="22" width="1.13"/>
-    <col customWidth="1" min="23" max="23" width="6.5"/>
+    <col customWidth="1" min="23" max="23" width="5.0"/>
     <col customWidth="1" min="24" max="24" width="2.63"/>
     <col customWidth="1" min="25" max="25" width="1.88"/>
     <col customWidth="1" min="26" max="26" width="1.13"/>
@@ -33309,12 +33309,16 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
+      <c r="S14" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="T14" s="56"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="99" t="s">
+        <v>24</v>
+      </c>
+      <c r="W14" s="56"/>
+      <c r="X14" s="57"/>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
@@ -33346,12 +33350,12 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="64"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
@@ -33391,12 +33395,10 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
+      <c r="S16" s="71"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="71"/>
+      <c r="X16" s="54"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -33428,12 +33430,12 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="73"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
@@ -41890,7 +41892,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="26">
     <mergeCell ref="S2:X2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="O4:W4"/>
@@ -41901,6 +41903,10 @@
     <mergeCell ref="B16:E17"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:X19"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="S15:U17"/>
+    <mergeCell ref="V15:X17"/>
     <mergeCell ref="B21:M21"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="T21:U21"/>
